--- a/nuno-dataset/test-oxigen-01/content/results/metrics_12_1.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_12_1.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_0</t>
+          <t>model_12_1_17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8412633150430517</v>
+        <v>0.7702880159603739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.724304938422756</v>
+        <v>0.1987834259997685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8890930428812045</v>
+        <v>0.3737867480225621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7992350197452374</v>
+        <v>0.4677666912442467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1756747215986252</v>
+        <v>0.254223495721817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.278089165687561</v>
+        <v>0.1547020375728607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0983210951089859</v>
+        <v>0.5813519358634949</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1934924125671387</v>
+        <v>0.3554784059524536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_1</t>
+          <t>model_12_1_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8452342823952281</v>
+        <v>0.7702981945054015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.701952923604269</v>
+        <v>0.1996665894790683</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8872655067586557</v>
+        <v>0.3737078230375384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7860590583535091</v>
+        <v>0.4678501598792255</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1712800413370132</v>
+        <v>0.2542122006416321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3006352782249451</v>
+        <v>0.1545315086841583</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09994123876094818</v>
+        <v>0.5814251899719238</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2061911076307297</v>
+        <v>0.355422705411911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_2</t>
+          <t>model_12_1_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8530928408762886</v>
+        <v>0.7703152824586406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.638513391196309</v>
+        <v>0.1989619078212664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7718742206453427</v>
+        <v>0.3739664464717619</v>
       </c>
       <c r="E4" t="n">
-        <v>0.700959581186038</v>
+        <v>0.4679115358198676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625829488039017</v>
+        <v>0.2541933059692383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3646257221698761</v>
+        <v>0.1546675562858582</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2022377848625183</v>
+        <v>0.5811851024627686</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2882078886032104</v>
+        <v>0.3553816676139832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_7</t>
+          <t>model_12_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8583552231402488</v>
+        <v>0.7703187006311639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6188751347068202</v>
+        <v>0.1982150082930486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7022009497649442</v>
+        <v>0.3741693050712878</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6599192984891598</v>
+        <v>0.4679298873447452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1567590236663818</v>
+        <v>0.254189521074295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3844345211982727</v>
+        <v>0.1548117846250534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2640044391155243</v>
+        <v>0.5809967517852783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3277615308761597</v>
+        <v>0.3553694188594818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_6</t>
+          <t>model_12_1_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8593229653448001</v>
+        <v>0.770333287917822</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6265942794002058</v>
+        <v>0.1993957070667797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.706980472371679</v>
+        <v>0.3740086516862537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6662653116336763</v>
+        <v>0.4680055387702095</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1556880325078964</v>
+        <v>0.2541733682155609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.376648336648941</v>
+        <v>0.1545837968587875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2597672939300537</v>
+        <v>0.5811458826065063</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3216454088687897</v>
+        <v>0.3553188741207123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_3</t>
+          <t>model_12_1_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8595232707363647</v>
+        <v>0.7703431768201322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6760064489310766</v>
+        <v>0.2001708005561335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7439891119949394</v>
+        <v>0.3739285619974192</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7096632891807311</v>
+        <v>0.4680717698651028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1554663479328156</v>
+        <v>0.2541624009609222</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3268070816993713</v>
+        <v>0.1544341444969177</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2269584536552429</v>
+        <v>0.581220269203186</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2798194885253906</v>
+        <v>0.3552746772766113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_10</t>
+          <t>model_12_1_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8597501547954762</v>
+        <v>0.7703525420718753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6156362197904812</v>
+        <v>0.1987242055308958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7111638752089271</v>
+        <v>0.3743293730948457</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6620044396549348</v>
+        <v>0.4681125161889585</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1552152335643768</v>
+        <v>0.2541520595550537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.387701541185379</v>
+        <v>0.1547134518623352</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2560586333274841</v>
+        <v>0.5808481574058533</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3257519602775574</v>
+        <v>0.355247437953949</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_8</t>
+          <t>model_12_1_24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8597794808194785</v>
+        <v>0.7703547736059736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6196681696219404</v>
+        <v>0.1993563993320111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7086095365674555</v>
+        <v>0.374195741640775</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6631327596949352</v>
+        <v>0.4681218895807548</v>
       </c>
       <c r="F9" t="n">
-        <v>0.155182808637619</v>
+        <v>0.2541496157646179</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3836345970630646</v>
+        <v>0.1545913964509964</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2583231031894684</v>
+        <v>0.5809721946716309</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3246644735336304</v>
+        <v>0.3552411496639252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_18</t>
+          <t>model_12_1_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8598317507956088</v>
+        <v>0.7703641322270097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6176757427592292</v>
+        <v>0.1991967505715344</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7072369212404263</v>
+        <v>0.374369412421717</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6614345865404452</v>
+        <v>0.4682110444385842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1551249474287033</v>
+        <v>0.254139244556427</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3856443166732788</v>
+        <v>0.1546222269535065</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2595399618148804</v>
+        <v>0.5808110237121582</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3263011574745178</v>
+        <v>0.3551816344261169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_17</t>
+          <t>model_12_1_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8599423973714607</v>
+        <v>0.7703641853590977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6177332515495146</v>
+        <v>0.1989926258025301</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7082149504760196</v>
+        <v>0.374361939156395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6618899812287218</v>
+        <v>0.4681748873317186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1550024896860123</v>
+        <v>0.2541391849517822</v>
       </c>
       <c r="G11" t="n">
-        <v>0.38558629155159</v>
+        <v>0.1546616405248642</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2586728930473328</v>
+        <v>0.5808179378509521</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3258621990680695</v>
+        <v>0.3552058041095734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_14</t>
+          <t>model_12_1_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8599429033899062</v>
+        <v>0.7703788667748346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6168732489849176</v>
+        <v>0.1992845426132933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7095436897098835</v>
+        <v>0.3744223106404462</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6619885734245474</v>
+        <v>0.4682590576760349</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1550019532442093</v>
+        <v>0.2541229426860809</v>
       </c>
       <c r="G12" t="n">
-        <v>0.386453777551651</v>
+        <v>0.1546052843332291</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2574949860572815</v>
+        <v>0.5807619094848633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3257672190666199</v>
+        <v>0.3551495373249054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_21</t>
+          <t>model_12_1_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8600431095039756</v>
+        <v>0.7703920433380196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.619166808087256</v>
+        <v>0.2003054347269134</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7070710866860872</v>
+        <v>0.3742995698190802</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6621890557838346</v>
+        <v>0.4683349829732837</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1548910290002823</v>
+        <v>0.254108339548111</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3841403126716614</v>
+        <v>0.1544081568717957</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2596869766712189</v>
+        <v>0.5808758735656738</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3255740404129028</v>
+        <v>0.3550989031791687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_19</t>
+          <t>model_12_1_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8600618651960863</v>
+        <v>0.7705046043225413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6189215031461583</v>
+        <v>0.2012919820957638</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7076433537358507</v>
+        <v>0.3750244399388615</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6623007506496907</v>
+        <v>0.4689601599705492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1548702865839005</v>
+        <v>0.2539837956428528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.384387731552124</v>
+        <v>0.1542176753282547</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2591796517372131</v>
+        <v>0.5802029371261597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3254663348197937</v>
+        <v>0.3546812832355499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_11</t>
+          <t>model_12_1_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8600919455383772</v>
+        <v>0.7705087615956621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6173357007408676</v>
+        <v>0.2011550414062432</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7108117973431094</v>
+        <v>0.3750961966283811</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6627936861277323</v>
+        <v>0.4689861725392683</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1548369973897934</v>
+        <v>0.2539791762828827</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3859873116016388</v>
+        <v>0.1542441248893738</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2563707530498505</v>
+        <v>0.580136239528656</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3249912559986115</v>
+        <v>0.3546639382839203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_24</t>
+          <t>model_12_1_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.86011924865544</v>
+        <v>0.7705501179495036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6196888867457845</v>
+        <v>0.1996480175017763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7070454013994187</v>
+        <v>0.3758330709219784</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6624671784714111</v>
+        <v>0.4692374160394654</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1548067778348923</v>
+        <v>0.2539333999156952</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3836137056350708</v>
+        <v>0.154535099864006</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2597097158432007</v>
+        <v>0.5794521570205688</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3253059685230255</v>
+        <v>0.3544961214065552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_16</t>
+          <t>model_12_1_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8601323559437495</v>
+        <v>0.7705708762758471</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6184582598872482</v>
+        <v>0.1992314851959247</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7090447240904125</v>
+        <v>0.376189836452509</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6626507395843344</v>
+        <v>0.4694070797320247</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1547922790050507</v>
+        <v>0.2539104521274567</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3848550021648407</v>
+        <v>0.154615506529808</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2579373121261597</v>
+        <v>0.5791209936141968</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3251290619373322</v>
+        <v>0.3543828129768372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_15</t>
+          <t>model_12_1_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8601330680820164</v>
+        <v>0.7706542326660656</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6183720985282231</v>
+        <v>0.2001817733246222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7091938240167434</v>
+        <v>0.3766032551426509</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6626675501791459</v>
+        <v>0.4698229195005603</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1547914892435074</v>
+        <v>0.2538181841373444</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3849419355392456</v>
+        <v>0.1544320285320282</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2578051090240479</v>
+        <v>0.5787371397018433</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3251128494739532</v>
+        <v>0.3541050553321838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_20</t>
+          <t>model_12_1_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8601527557019715</v>
+        <v>0.7708329397332174</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6195930534237122</v>
+        <v>0.1996731586598876</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7075208303472842</v>
+        <v>0.3783400532391881</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6626198834187695</v>
+        <v>0.4708813182055462</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1547696888446808</v>
+        <v>0.2536204159259796</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3837103545665741</v>
+        <v>0.1545302271842957</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2592882513999939</v>
+        <v>0.5771248340606689</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3251588046550751</v>
+        <v>0.3533981442451477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_22</t>
+          <t>model_12_1_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8601529959052188</v>
+        <v>0.7709300596186809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6198837884700918</v>
+        <v>0.2000670564768837</v>
       </c>
       <c r="D20" t="n">
-        <v>0.707103035812048</v>
+        <v>0.3791911372247737</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6626001362626383</v>
+        <v>0.4714981031600785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1547694206237793</v>
+        <v>0.2535129189491272</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3834170997142792</v>
+        <v>0.1544541716575623</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2596586346626282</v>
+        <v>0.5763347148895264</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3251778185367584</v>
+        <v>0.352986216545105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_23</t>
+          <t>model_12_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8601542202055633</v>
+        <v>0.771244044394398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6199525727472275</v>
+        <v>0.1987109518219667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7070237107876199</v>
+        <v>0.3823048226352734</v>
       </c>
       <c r="E21" t="n">
-        <v>0.662603911205042</v>
+        <v>0.4733271939039007</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1547680795192719</v>
+        <v>0.2531654536724091</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3833476901054382</v>
+        <v>0.1547160297632217</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2597289681434631</v>
+        <v>0.5734440684318542</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3251741528511047</v>
+        <v>0.3517645597457886</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_12</t>
+          <t>model_12_1_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8602138339687695</v>
+        <v>0.7717249486766402</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6177018498666567</v>
+        <v>0.200602381289175</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7111335746414248</v>
+        <v>0.3860492302709894</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6631359352800927</v>
+        <v>0.4760659303975757</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1547020971775055</v>
+        <v>0.2526332139968872</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3856180012226105</v>
+        <v>0.1543508172035217</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2560855150222778</v>
+        <v>0.5699679255485535</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3246614038944244</v>
+        <v>0.3499353528022766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_9</t>
+          <t>model_12_1_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8602967334211576</v>
+        <v>0.772201955086943</v>
       </c>
       <c r="C23" t="n">
-        <v>0.617898452741416</v>
+        <v>0.2025898400660028</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7132572783367215</v>
+        <v>0.3898793128569239</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6641640289089112</v>
+        <v>0.4788754950543522</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1546103656291962</v>
+        <v>0.2521052956581116</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3854196965694427</v>
+        <v>0.1539670825004578</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2542027831077576</v>
+        <v>0.5664122104644775</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3236705660820007</v>
+        <v>0.3480588793754578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_13</t>
+          <t>model_12_1_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8604222208620019</v>
+        <v>0.7738168295163852</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6191030051800761</v>
+        <v>0.2091860235607297</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7109931688452414</v>
+        <v>0.4027355969219977</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6638513799811666</v>
+        <v>0.4882942917304769</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1544714719057083</v>
+        <v>0.2503181099891663</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3842046558856964</v>
+        <v>0.1526934504508972</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2562099695205688</v>
+        <v>0.5544769167900085</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3239718973636627</v>
+        <v>0.3417680263519287</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_5</t>
+          <t>model_12_1_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8609482554194794</v>
+        <v>0.774427139253872</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6382543116021243</v>
+        <v>0.2023202297983786</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7159954892886161</v>
+        <v>0.409480314428868</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6766281067340052</v>
+        <v>0.4916551140260499</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1538892984390259</v>
+        <v>0.2496426850557327</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3648870289325714</v>
+        <v>0.1540191322565079</v>
       </c>
       <c r="H25" t="n">
-        <v>0.251775324344635</v>
+        <v>0.548215389251709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3116579949855804</v>
+        <v>0.3395233452320099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_4</t>
+          <t>model_12_1_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8622308787556823</v>
+        <v>0.796495117701392</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6665438759516757</v>
+        <v>0.2888678192338947</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7375013530909427</v>
+        <v>0.6043814120550001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7016119343212939</v>
+        <v>0.6323867517271473</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1524698287248611</v>
+        <v>0.2252199500799179</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3363518118858337</v>
+        <v>0.1373081803321838</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2327099740505219</v>
+        <v>0.3672768473625183</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2875791788101196</v>
+        <v>0.2455287575721741</v>
       </c>
     </row>
   </sheetData>
